--- a/Projects/06_Stock_price/month_stock.xlsx
+++ b/Projects/06_Stock_price/month_stock.xlsx
@@ -172,7 +172,7 @@
     <t>21,974,199</t>
   </si>
   <si>
-    <t>15,937,000</t>
+    <t>16,604,451</t>
   </si>
   <si>
     <t>1,011,342,122</t>
@@ -238,7 +238,7 @@
     <t>3,054,444,066</t>
   </si>
   <si>
-    <t>2,221,257,100</t>
+    <t>2,314,461,154</t>
   </si>
   <si>
     <t>137.00</t>
@@ -559,7 +559,7 @@
     <t>15,333</t>
   </si>
   <si>
-    <t>7,176</t>
+    <t>12,191</t>
   </si>
 </sst>
 </file>
